--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Arellano\arellano\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Montserrat\Downloads\sign in\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB6B7DB-176D-449C-AD90-DBA2E44B5A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Matrícula</t>
   </si>
@@ -63,12 +64,15 @@
   </si>
   <si>
     <t>Aprobado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eleazar </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,16 +383,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>241271031</v>
       </c>
@@ -422,7 +426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>241271032</v>
       </c>
@@ -439,7 +443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>241271033</v>
       </c>
@@ -456,7 +460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>241271034</v>
       </c>
@@ -473,7 +477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>241271035</v>
       </c>
@@ -490,7 +494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>241271036</v>
       </c>
@@ -507,7 +511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>241271037</v>
       </c>
@@ -521,6 +525,23 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>242171038</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>308</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
     </row>

--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Montserrat\Downloads\sign in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB6B7DB-176D-449C-AD90-DBA2E44B5A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DEE66C-5A31-410F-9BDF-8A255B3B0867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Montserrat\Downloads\sign in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DEE66C-5A31-410F-9BDF-8A255B3B0867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB52F891-3786-48F7-9724-DE81EE539E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Matrícula</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t xml:space="preserve">Eleazar </t>
+  </si>
+  <si>
+    <t>Diana</t>
   </si>
 </sst>
 </file>
@@ -384,13 +387,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -530,7 +536,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>242171038</v>
+        <v>241271038</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -542,6 +548,23 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>241271039</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>309</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>12</v>
       </c>
     </row>
